--- a/data/trans_orig/P16A09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE05FFF-F2E0-465E-A71D-83382E8E2A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDB4BD2A-607B-4C95-835A-026DC47451A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{99D83D76-C851-4F56-B55D-07689F5EB5D6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2AFE0370-987A-4C6B-A90E-8F8095F01356}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="278">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,22 +80,25 @@
     <t>5,25%</t>
   </si>
   <si>
-    <t>8,31%</t>
+    <t>8,25%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
     <t>8,6%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +107,7 @@
     <t>93,37%</t>
   </si>
   <si>
-    <t>91,69%</t>
+    <t>91,75%</t>
   </si>
   <si>
     <t>94,75%</t>
@@ -113,16 +116,19 @@
     <t>89,86%</t>
   </si>
   <si>
-    <t>88,01%</t>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>91,4%</t>
   </si>
   <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,724 +143,736 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>1,81%</t>
+    <t>1,88%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>98,46%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
     <t>95,67%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE064948-8CF4-41E5-80D6-0BCD580B1F34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEA2DFA-1483-4837-B0EE-CF0DDD0BCEE3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1420,19 +1438,19 @@
         <v>201862</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>965</v>
@@ -1441,13 +1459,13 @@
         <v>963272</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1162</v>
@@ -1456,13 +1474,13 @@
         <v>1181703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>2127</v>
@@ -1471,13 +1489,13 @@
         <v>2144974</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,13 +1510,13 @@
         <v>1031723</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1291</v>
@@ -1507,13 +1525,13 @@
         <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2329</v>
@@ -1522,18 +1540,18 @@
         <v>2346836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1545,13 +1563,13 @@
         <v>20410</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -1560,13 +1578,13 @@
         <v>26801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -1575,19 +1593,19 @@
         <v>47211</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1628</v>
@@ -1596,13 +1614,13 @@
         <v>1671984</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1529</v>
@@ -1611,13 +1629,13 @@
         <v>1560872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3157</v>
@@ -1626,13 +1644,13 @@
         <v>3232857</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1665,13 @@
         <v>1692394</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1554</v>
@@ -1662,13 +1680,13 @@
         <v>1587673</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3202</v>
@@ -1677,18 +1695,18 @@
         <v>3280068</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1700,13 +1718,13 @@
         <v>6431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -1715,13 +1733,13 @@
         <v>11321</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -1730,19 +1748,19 @@
         <v>17752</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>522</v>
@@ -1751,13 +1769,13 @@
         <v>544977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>442</v>
@@ -1766,13 +1784,13 @@
         <v>465091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>964</v>
@@ -1781,13 +1799,13 @@
         <v>1010068</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1820,13 @@
         <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>452</v>
@@ -1817,13 +1835,13 @@
         <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>979</v>
@@ -1832,13 +1850,13 @@
         <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,13 +1873,13 @@
         <v>95292</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -1870,13 +1888,13 @@
         <v>171532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>262</v>
@@ -1885,34 +1903,34 @@
         <v>266824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3115</v>
       </c>
       <c r="D14" s="7">
-        <v>3180233</v>
+        <v>3180234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3133</v>
@@ -1921,28 +1939,28 @@
         <v>3207666</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6248</v>
       </c>
       <c r="N14" s="7">
-        <v>6387898</v>
+        <v>6387899</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,16 +1972,16 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3297</v>
@@ -1972,33 +1990,33 @@
         <v>3379198</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +2035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53FFBC7-621B-4CC5-8050-AF7863BF08E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDD3282-72ED-4AB8-9DD4-4065005EF18B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2034,7 +2052,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2141,13 +2159,13 @@
         <v>38603</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>155</v>
@@ -2156,13 +2174,13 @@
         <v>166988</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>190</v>
@@ -2171,19 +2189,19 @@
         <v>205591</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>871</v>
@@ -2192,13 +2210,13 @@
         <v>933234</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1086</v>
@@ -2207,13 +2225,13 @@
         <v>1164564</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1957</v>
@@ -2222,13 +2240,13 @@
         <v>2097797</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2261,13 @@
         <v>971837</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1241</v>
@@ -2258,13 +2276,13 @@
         <v>1331552</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2147</v>
@@ -2273,18 +2291,18 @@
         <v>2303388</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2296,13 +2314,13 @@
         <v>25611</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -2311,13 +2329,13 @@
         <v>31895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -2326,19 +2344,19 @@
         <v>57506</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1829</v>
@@ -2347,13 +2365,13 @@
         <v>1934411</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>1601</v>
@@ -2362,13 +2380,13 @@
         <v>1719954</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>3430</v>
@@ -2377,13 +2395,13 @@
         <v>3654365</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2416,13 @@
         <v>1960022</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1630</v>
@@ -2413,13 +2431,13 @@
         <v>1751849</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3482</v>
@@ -2428,18 +2446,18 @@
         <v>3711871</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2451,13 +2469,13 @@
         <v>7115</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2466,13 +2484,13 @@
         <v>6526</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2481,19 +2499,19 @@
         <v>13641</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>432</v>
@@ -2502,13 +2520,13 @@
         <v>473217</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>405</v>
@@ -2517,13 +2535,13 @@
         <v>451128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>837</v>
@@ -2532,13 +2550,13 @@
         <v>924345</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2571,13 @@
         <v>480332</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>411</v>
@@ -2568,13 +2586,13 @@
         <v>457654</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>848</v>
@@ -2583,13 +2601,13 @@
         <v>937986</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2624,13 @@
         <v>71329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>190</v>
@@ -2621,13 +2639,13 @@
         <v>205410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>253</v>
@@ -2636,19 +2654,19 @@
         <v>276739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3132</v>
@@ -2657,13 +2675,13 @@
         <v>3340862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>3092</v>
@@ -2672,13 +2690,13 @@
         <v>3335645</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>6224</v>
@@ -2687,13 +2705,13 @@
         <v>6676507</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2726,13 @@
         <v>3412191</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3282</v>
@@ -2723,13 +2741,13 @@
         <v>3541055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6477</v>
@@ -2738,18 +2756,18 @@
         <v>6953246</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2768,7 +2786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EF92EB-46F2-4626-91F9-0569236BB357}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D53596-1578-4567-8513-F8D0CDC64E22}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2785,7 +2803,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2892,13 +2910,13 @@
         <v>26671</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>82</v>
@@ -2907,13 +2925,13 @@
         <v>93061</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
@@ -2922,19 +2940,19 @@
         <v>119733</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>733</v>
@@ -2943,13 +2961,13 @@
         <v>727676</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>810</v>
@@ -2958,13 +2976,13 @@
         <v>901599</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1543</v>
@@ -2973,13 +2991,13 @@
         <v>1629274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +3012,13 @@
         <v>754347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>892</v>
@@ -3009,13 +3027,13 @@
         <v>994660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>1654</v>
@@ -3024,18 +3042,18 @@
         <v>1749007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3047,13 +3065,13 @@
         <v>17578</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -3062,13 +3080,13 @@
         <v>37291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3077,19 +3095,19 @@
         <v>54870</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1936</v>
@@ -3098,13 +3116,13 @@
         <v>2058807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>1875</v>
@@ -3113,13 +3131,13 @@
         <v>1951009</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>3811</v>
@@ -3128,13 +3146,13 @@
         <v>4009815</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3167,13 @@
         <v>2076385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1908</v>
@@ -3164,13 +3182,13 @@
         <v>1988300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3860</v>
@@ -3179,18 +3197,18 @@
         <v>4064685</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3202,13 +3220,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3217,13 +3235,13 @@
         <v>4205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3232,19 +3250,19 @@
         <v>4205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>501</v>
@@ -3253,13 +3271,13 @@
         <v>546886</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>522</v>
@@ -3268,13 +3286,13 @@
         <v>544935</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>1023</v>
@@ -3283,13 +3301,13 @@
         <v>1091821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3322,13 @@
         <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -3319,13 +3337,13 @@
         <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1027</v>
@@ -3334,13 +3352,13 @@
         <v>1096026</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,13 +3375,13 @@
         <v>44250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -3372,13 +3390,13 @@
         <v>134558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>164</v>
@@ -3387,19 +3405,19 @@
         <v>178807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3170</v>
@@ -3408,13 +3426,13 @@
         <v>3333368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>3207</v>
@@ -3423,13 +3441,13 @@
         <v>3397542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>6377</v>
@@ -3438,13 +3456,13 @@
         <v>6730911</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3477,13 @@
         <v>3377618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3326</v>
@@ -3474,13 +3492,13 @@
         <v>3532100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6541</v>
@@ -3489,18 +3507,18 @@
         <v>6909718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3519,7 +3537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4FADB6-96C5-4D43-BF71-F6B95A8A2E40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11AB592-0F74-4993-8877-442CE511CB41}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3536,7 +3554,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3643,13 +3661,13 @@
         <v>25924</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>177</v>
@@ -3658,13 +3676,13 @@
         <v>111045</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>212</v>
@@ -3673,19 +3691,19 @@
         <v>136970</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>653</v>
@@ -3694,13 +3712,13 @@
         <v>513363</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
         <v>1246</v>
@@ -3709,13 +3727,13 @@
         <v>720523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>1899</v>
@@ -3724,13 +3742,13 @@
         <v>1233886</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3763,13 @@
         <v>539287</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1423</v>
@@ -3760,13 +3778,13 @@
         <v>831568</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2111</v>
@@ -3775,18 +3793,18 @@
         <v>1370856</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3798,13 +3816,13 @@
         <v>38501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
@@ -3813,13 +3831,13 @@
         <v>76731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M7" s="7">
         <v>166</v>
@@ -3828,19 +3846,19 @@
         <v>115231</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1948</v>
@@ -3849,28 +3867,28 @@
         <v>2123521</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>2798</v>
       </c>
       <c r="I8" s="7">
-        <v>2172065</v>
+        <v>2172064</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>4746</v>
@@ -3879,13 +3897,13 @@
         <v>4295586</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,28 +3918,28 @@
         <v>2162022</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>4912</v>
@@ -3930,18 +3948,18 @@
         <v>4410817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3953,13 +3971,13 @@
         <v>1451</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -3968,13 +3986,13 @@
         <v>21810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -3983,19 +4001,19 @@
         <v>23261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>679</v>
@@ -4004,13 +4022,13 @@
         <v>671588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>970</v>
@@ -4019,13 +4037,13 @@
         <v>691133</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>1649</v>
@@ -4034,13 +4052,13 @@
         <v>1362721</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4073,13 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>1003</v>
@@ -4070,13 +4088,13 @@
         <v>712943</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1684</v>
@@ -4085,13 +4103,13 @@
         <v>1385982</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4126,13 @@
         <v>65876</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>332</v>
@@ -4123,13 +4141,13 @@
         <v>209586</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -4138,19 +4156,19 @@
         <v>275462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3280</v>
@@ -4159,13 +4177,13 @@
         <v>3308472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>5014</v>
@@ -4174,13 +4192,13 @@
         <v>3583721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>8294</v>
@@ -4189,13 +4207,13 @@
         <v>6892194</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4228,13 @@
         <v>3374348</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>5346</v>
@@ -4225,13 +4243,13 @@
         <v>3793307</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>8707</v>
@@ -4240,18 +4258,18 @@
         <v>7167656</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDB4BD2A-607B-4C95-835A-026DC47451A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{361F0CFF-CC57-476B-B2F8-7AEEAE48B596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2AFE0370-987A-4C6B-A90E-8F8095F01356}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2040BF86-B447-46F4-B6C8-057BFEE5CAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="282">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,16 +77,16 @@
     <t>6,63%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>8,58%</t>
+    <t>8,57%</t>
   </si>
   <si>
     <t>11,88%</t>
@@ -95,10 +95,10 @@
     <t>8,6%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>93,37%</t>
   </si>
   <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>89,86%</t>
@@ -119,16 +119,16 @@
     <t>88,12%</t>
   </si>
   <si>
-    <t>91,42%</t>
+    <t>91,43%</t>
   </si>
   <si>
     <t>91,4%</t>
   </si>
   <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,678 +143,699 @@
     <t>0,73%</t>
   </si>
   <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
     <t>97,26%</t>
   </si>
   <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
     <t>96,94%</t>
   </si>
   <si>
@@ -830,12 +851,6 @@
     <t>97,52%</t>
   </si>
   <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
     <t>1,54%</t>
   </si>
   <si>
@@ -852,9 +867,6 @@
   </si>
   <si>
     <t>4,33%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
   </si>
   <si>
     <t>98,46%</t>
@@ -1284,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEA2DFA-1483-4837-B0EE-CF0DDD0BCEE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3D3A6B-C17F-487B-A29D-8FA4EF913F20}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1921,7 +1933,7 @@
         <v>3115</v>
       </c>
       <c r="D14" s="7">
-        <v>3180234</v>
+        <v>3180233</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1972,7 +1984,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2035,7 +2047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDD3282-72ED-4AB8-9DD4-4065005EF18B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC67A60-0DA8-4BAA-A338-32F1C1C24657}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2320,7 +2332,7 @@
         <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -2329,10 +2341,10 @@
         <v>31895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>111</v>
@@ -2347,10 +2359,10 @@
         <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,10 +2377,10 @@
         <v>1934411</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>116</v>
@@ -2386,7 +2398,7 @@
         <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="M8" s="7">
         <v>3430</v>
@@ -2395,13 +2407,13 @@
         <v>3654365</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2481,13 @@
         <v>7115</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2484,13 +2496,13 @@
         <v>6526</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2499,13 +2511,13 @@
         <v>13641</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,10 +2532,10 @@
         <v>473217</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>132</v>
@@ -2630,7 +2642,7 @@
         <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>190</v>
@@ -2639,13 +2651,13 @@
         <v>205410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>253</v>
@@ -2654,13 +2666,13 @@
         <v>276739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2687,13 @@
         <v>3340862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>3092</v>
@@ -2690,13 +2702,13 @@
         <v>3335645</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>6224</v>
@@ -2705,13 +2717,13 @@
         <v>6676507</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,7 +2798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D53596-1578-4567-8513-F8D0CDC64E22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A6BBBE-E7E1-4427-8D21-4E8CB125F1A9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2803,7 +2815,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2910,13 +2922,13 @@
         <v>26671</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>82</v>
@@ -2925,13 +2937,13 @@
         <v>93061</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
@@ -2940,13 +2952,13 @@
         <v>119733</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,13 +2973,13 @@
         <v>727676</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>810</v>
@@ -2976,13 +2988,13 @@
         <v>901599</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1543</v>
@@ -2991,13 +3003,13 @@
         <v>1629274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3077,13 @@
         <v>17578</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -3080,13 +3092,13 @@
         <v>37291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3095,13 +3107,13 @@
         <v>54870</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3128,13 @@
         <v>2058807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1875</v>
@@ -3131,13 +3143,13 @@
         <v>1951009</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>3811</v>
@@ -3146,13 +3158,13 @@
         <v>4009815</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3235,13 +3247,13 @@
         <v>4205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3250,13 +3262,13 @@
         <v>4205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,10 +3283,10 @@
         <v>546886</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -3286,13 +3298,13 @@
         <v>544935</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>1023</v>
@@ -3301,13 +3313,13 @@
         <v>1091821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,10 +3390,10 @@
         <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -3390,13 +3402,13 @@
         <v>134558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>164</v>
@@ -3405,13 +3417,13 @@
         <v>178807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3438,13 @@
         <v>3333368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>3207</v>
@@ -3441,13 +3453,13 @@
         <v>3397542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>6377</v>
@@ -3456,13 +3468,13 @@
         <v>6730911</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,7 +3549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11AB592-0F74-4993-8877-442CE511CB41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A61F4B-4747-4C19-983F-74D6E290274F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3554,7 +3566,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3661,13 +3673,13 @@
         <v>25924</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>177</v>
@@ -3676,13 +3688,13 @@
         <v>111045</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>212</v>
@@ -3691,13 +3703,13 @@
         <v>136970</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3724,13 @@
         <v>513363</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>1246</v>
@@ -3727,13 +3739,13 @@
         <v>720523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>1899</v>
@@ -3742,13 +3754,13 @@
         <v>1233886</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3828,13 @@
         <v>38501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
@@ -3831,13 +3843,13 @@
         <v>76731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>166</v>
@@ -3846,13 +3858,13 @@
         <v>115231</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3879,13 @@
         <v>2123521</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>2798</v>
@@ -3882,13 +3894,13 @@
         <v>2172064</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>4746</v>
@@ -3897,13 +3909,13 @@
         <v>4295586</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,13 +3983,13 @@
         <v>1451</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -3986,13 +3998,13 @@
         <v>21810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -4001,13 +4013,13 @@
         <v>23261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4034,13 @@
         <v>671588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>970</v>
@@ -4037,13 +4049,13 @@
         <v>691133</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>1649</v>
@@ -4052,13 +4064,13 @@
         <v>1362721</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4138,13 @@
         <v>65876</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>332</v>
@@ -4141,13 +4153,13 @@
         <v>209586</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -4156,13 +4168,13 @@
         <v>275462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4189,13 @@
         <v>3308472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>5014</v>
@@ -4192,13 +4204,13 @@
         <v>3583721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>8294</v>
@@ -4207,13 +4219,13 @@
         <v>6892194</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{361F0CFF-CC57-476B-B2F8-7AEEAE48B596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC8D23CA-A5CD-4E32-885E-6E24760D41DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2040BF86-B447-46F4-B6C8-057BFEE5CAA3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D8F13067-0BF4-4669-AC01-156DE0379C0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="272">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,31 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
     <t>8,6%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +104,25 @@
     <t>93,37%</t>
   </si>
   <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>89,86%</t>
   </si>
   <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>88,01%</t>
   </si>
   <si>
     <t>91,4%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,7 +137,7 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>1,91%</t>
+    <t>1,81%</t>
   </si>
   <si>
     <t>1,69%</t>
@@ -152,13 +146,13 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>1,95%</t>
@@ -167,7 +161,7 @@
     <t>98,79%</t>
   </si>
   <si>
-    <t>98,09%</t>
+    <t>98,19%</t>
   </si>
   <si>
     <t>99,27%</t>
@@ -176,7 +170,7 @@
     <t>98,31%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>98,86%</t>
@@ -188,7 +182,7 @@
     <t>98,05%</t>
   </si>
   <si>
-    <t>98,91%</t>
+    <t>98,93%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,16 +191,16 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,19%</t>
   </si>
   <si>
     <t>4,21%</t>
@@ -215,19 +209,19 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>97,62%</t>
@@ -236,472 +230,460 @@
     <t>95,79%</t>
   </si>
   <si>
-    <t>98,78%</t>
+    <t>98,81%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>96,78%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
@@ -710,181 +692,169 @@
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>90,01%</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,81%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>2,44%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,19%</t>
+    <t>99,17%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
+    <t>3,42%</t>
+  </si>
+  <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>98,46%</t>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
     <t>95,67%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3D3A6B-C17F-487B-A29D-8FA4EF913F20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3A05D6-DE63-4499-BEB1-35FF869B326A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1450,19 +1420,19 @@
         <v>201862</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>965</v>
@@ -1471,13 +1441,13 @@
         <v>963272</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1162</v>
@@ -1486,13 +1456,13 @@
         <v>1181703</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>2127</v>
@@ -1501,13 +1471,13 @@
         <v>2144974</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,13 +1492,13 @@
         <v>1031723</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1291</v>
@@ -1537,13 +1507,13 @@
         <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2329</v>
@@ -1552,18 +1522,18 @@
         <v>2346836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1575,13 +1545,13 @@
         <v>20410</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -1590,13 +1560,13 @@
         <v>26801</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -1605,19 +1575,19 @@
         <v>47211</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1628</v>
@@ -1626,13 +1596,13 @@
         <v>1671984</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1529</v>
@@ -1641,13 +1611,13 @@
         <v>1560872</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3157</v>
@@ -1656,13 +1626,13 @@
         <v>3232857</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1647,13 @@
         <v>1692394</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1554</v>
@@ -1692,13 +1662,13 @@
         <v>1587673</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3202</v>
@@ -1707,18 +1677,18 @@
         <v>3280068</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1730,13 +1700,13 @@
         <v>6431</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -1745,13 +1715,13 @@
         <v>11321</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -1760,19 +1730,19 @@
         <v>17752</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>522</v>
@@ -1781,13 +1751,13 @@
         <v>544977</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>442</v>
@@ -1796,13 +1766,13 @@
         <v>465091</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>964</v>
@@ -1811,13 +1781,13 @@
         <v>1010068</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1802,13 @@
         <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>452</v>
@@ -1847,13 +1817,13 @@
         <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>979</v>
@@ -1862,13 +1832,13 @@
         <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,13 +1855,13 @@
         <v>95292</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -1900,13 +1870,13 @@
         <v>171532</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>262</v>
@@ -1915,19 +1885,19 @@
         <v>266824</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3115</v>
@@ -1936,13 +1906,13 @@
         <v>3180233</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3133</v>
@@ -1951,28 +1921,28 @@
         <v>3207666</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6248</v>
       </c>
       <c r="N14" s="7">
-        <v>6387899</v>
+        <v>6387898</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1957,13 @@
         <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3297</v>
@@ -2002,33 +1972,33 @@
         <v>3379198</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC67A60-0DA8-4BAA-A338-32F1C1C24657}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D2A342-9987-4638-9B5D-BC3BEB6E1EC6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2064,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2171,13 +2141,13 @@
         <v>38603</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>155</v>
@@ -2186,13 +2156,13 @@
         <v>166988</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>190</v>
@@ -2201,19 +2171,19 @@
         <v>205591</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>871</v>
@@ -2222,13 +2192,13 @@
         <v>933234</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1086</v>
@@ -2237,13 +2207,13 @@
         <v>1164564</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1957</v>
@@ -2252,13 +2222,13 @@
         <v>2097797</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2243,13 @@
         <v>971837</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1241</v>
@@ -2288,13 +2258,13 @@
         <v>1331552</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2147</v>
@@ -2303,18 +2273,18 @@
         <v>2303388</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2326,13 +2296,13 @@
         <v>25611</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -2341,13 +2311,13 @@
         <v>31895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -2356,19 +2326,19 @@
         <v>57506</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1829</v>
@@ -2377,13 +2347,13 @@
         <v>1934411</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1601</v>
@@ -2392,13 +2362,13 @@
         <v>1719954</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>3430</v>
@@ -2407,13 +2377,13 @@
         <v>3654365</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2398,13 @@
         <v>1960022</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1630</v>
@@ -2443,13 +2413,13 @@
         <v>1751849</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3482</v>
@@ -2458,18 +2428,18 @@
         <v>3711871</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2481,13 +2451,13 @@
         <v>7115</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2496,13 +2466,13 @@
         <v>6526</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2511,19 +2481,19 @@
         <v>13641</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>432</v>
@@ -2532,13 +2502,13 @@
         <v>473217</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>405</v>
@@ -2547,13 +2517,13 @@
         <v>451128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>837</v>
@@ -2562,13 +2532,13 @@
         <v>924345</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2553,13 @@
         <v>480332</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>411</v>
@@ -2598,13 +2568,13 @@
         <v>457654</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>848</v>
@@ -2613,13 +2583,13 @@
         <v>937986</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2606,13 @@
         <v>71329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>190</v>
@@ -2651,13 +2621,13 @@
         <v>205410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>253</v>
@@ -2666,19 +2636,19 @@
         <v>276739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3132</v>
@@ -2687,13 +2657,13 @@
         <v>3340862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>3092</v>
@@ -2702,13 +2672,13 @@
         <v>3335645</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>6224</v>
@@ -2717,13 +2687,13 @@
         <v>6676507</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2708,13 @@
         <v>3412191</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3282</v>
@@ -2753,13 +2723,13 @@
         <v>3541055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6477</v>
@@ -2768,18 +2738,18 @@
         <v>6953246</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2798,7 +2768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A6BBBE-E7E1-4427-8D21-4E8CB125F1A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D205D-F6AC-44CD-8259-70B7F133BDEC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2815,7 +2785,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2922,13 +2892,13 @@
         <v>26671</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
         <v>82</v>
@@ -2937,13 +2907,13 @@
         <v>93061</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
@@ -2952,19 +2922,19 @@
         <v>119733</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>733</v>
@@ -2973,13 +2943,13 @@
         <v>727676</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>810</v>
@@ -2988,13 +2958,13 @@
         <v>901599</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M5" s="7">
         <v>1543</v>
@@ -3003,13 +2973,13 @@
         <v>1629274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +2994,13 @@
         <v>754347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>892</v>
@@ -3039,13 +3009,13 @@
         <v>994660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>1654</v>
@@ -3054,18 +3024,18 @@
         <v>1749007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3077,13 +3047,13 @@
         <v>17578</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -3092,13 +3062,13 @@
         <v>37291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3107,19 +3077,19 @@
         <v>54870</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1936</v>
@@ -3128,13 +3098,13 @@
         <v>2058807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>1875</v>
@@ -3143,13 +3113,13 @@
         <v>1951009</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>3811</v>
@@ -3158,13 +3128,13 @@
         <v>4009815</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3149,13 @@
         <v>2076385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1908</v>
@@ -3194,13 +3164,13 @@
         <v>1988300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3860</v>
@@ -3209,18 +3179,18 @@
         <v>4064685</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3232,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3247,13 +3217,13 @@
         <v>4205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3262,19 +3232,19 @@
         <v>4205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>501</v>
@@ -3283,13 +3253,13 @@
         <v>546886</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
         <v>522</v>
@@ -3298,13 +3268,13 @@
         <v>544935</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1023</v>
@@ -3313,13 +3283,13 @@
         <v>1091821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3304,13 @@
         <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -3349,13 +3319,13 @@
         <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1027</v>
@@ -3364,13 +3334,13 @@
         <v>1096026</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3357,13 @@
         <v>44250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -3402,13 +3372,13 @@
         <v>134558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>164</v>
@@ -3417,19 +3387,19 @@
         <v>178807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3170</v>
@@ -3438,13 +3408,13 @@
         <v>3333368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>3207</v>
@@ -3453,13 +3423,13 @@
         <v>3397542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>6377</v>
@@ -3468,13 +3438,13 @@
         <v>6730911</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3459,13 @@
         <v>3377618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3326</v>
@@ -3504,13 +3474,13 @@
         <v>3532100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6541</v>
@@ -3519,18 +3489,18 @@
         <v>6909718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3549,7 +3519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A61F4B-4747-4C19-983F-74D6E290274F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D01004D-CB8F-4A2C-9CDE-08A533F0B20A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3566,7 +3536,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3673,13 +3643,13 @@
         <v>25924</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>177</v>
@@ -3688,13 +3658,13 @@
         <v>111045</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>212</v>
@@ -3703,19 +3673,19 @@
         <v>136970</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>653</v>
@@ -3724,13 +3694,13 @@
         <v>513363</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>1246</v>
@@ -3739,13 +3709,13 @@
         <v>720523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>1899</v>
@@ -3754,13 +3724,13 @@
         <v>1233886</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3745,13 @@
         <v>539287</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1423</v>
@@ -3790,13 +3760,13 @@
         <v>831568</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2111</v>
@@ -3805,18 +3775,18 @@
         <v>1370856</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3828,13 +3798,13 @@
         <v>38501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
@@ -3843,13 +3813,13 @@
         <v>76731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="M7" s="7">
         <v>166</v>
@@ -3858,19 +3828,19 @@
         <v>115231</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1948</v>
@@ -3879,28 +3849,28 @@
         <v>2123521</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>2798</v>
       </c>
       <c r="I8" s="7">
-        <v>2172064</v>
+        <v>2172065</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
         <v>4746</v>
@@ -3909,13 +3879,13 @@
         <v>4295586</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,28 +3900,28 @@
         <v>2162022</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>4912</v>
@@ -3960,18 +3930,18 @@
         <v>4410817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3983,13 +3953,13 @@
         <v>1451</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -3998,13 +3968,13 @@
         <v>21810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -4013,19 +3983,19 @@
         <v>23261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>679</v>
@@ -4034,13 +4004,13 @@
         <v>671588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>970</v>
@@ -4049,13 +4019,13 @@
         <v>691133</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>1649</v>
@@ -4064,13 +4034,13 @@
         <v>1362721</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4055,13 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>1003</v>
@@ -4100,13 +4070,13 @@
         <v>712943</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1684</v>
@@ -4115,13 +4085,13 @@
         <v>1385982</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4108,13 @@
         <v>65876</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>332</v>
@@ -4153,13 +4123,13 @@
         <v>209586</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -4168,19 +4138,19 @@
         <v>275462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3280</v>
@@ -4189,13 +4159,13 @@
         <v>3308472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>5014</v>
@@ -4204,13 +4174,13 @@
         <v>3583721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>8294</v>
@@ -4219,13 +4189,13 @@
         <v>6892194</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4210,13 @@
         <v>3374348</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>5346</v>
@@ -4255,13 +4225,13 @@
         <v>3793307</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>8707</v>
@@ -4270,18 +4240,18 @@
         <v>7167656</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC8D23CA-A5CD-4E32-885E-6E24760D41DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F45D6F-27E4-46C0-A6D8-87555ECC9089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D8F13067-0BF4-4669-AC01-156DE0379C0F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AE18F026-542B-47F8-B837-B1C91E6A0F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="278">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -689,172 +689,190 @@
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3A05D6-DE63-4499-BEB1-35FF869B326A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0768ADAF-C383-40E4-8917-BD9634F64797}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1468,7 +1486,7 @@
         <v>2127</v>
       </c>
       <c r="N5" s="7">
-        <v>2144974</v>
+        <v>2144973</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1519,7 +1537,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -1623,7 +1641,7 @@
         <v>3157</v>
       </c>
       <c r="N8" s="7">
-        <v>3232857</v>
+        <v>3232856</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1674,7 +1692,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -1918,7 +1936,7 @@
         <v>3133</v>
       </c>
       <c r="I14" s="7">
-        <v>3207666</v>
+        <v>3207665</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -1969,7 +1987,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -2017,7 +2035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D2A342-9987-4638-9B5D-BC3BEB6E1EC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49A4D50-D2DE-4177-8064-FF57052C3A63}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2204,7 +2222,7 @@
         <v>1086</v>
       </c>
       <c r="I5" s="7">
-        <v>1164564</v>
+        <v>1164563</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>99</v>
@@ -2255,7 +2273,7 @@
         <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>1331552</v>
+        <v>1331551</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -2768,7 +2786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D205D-F6AC-44CD-8259-70B7F133BDEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E4F17F-94EB-4563-8B3C-7D67D3D27A62}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3280,7 +3298,7 @@
         <v>1023</v>
       </c>
       <c r="N11" s="7">
-        <v>1091821</v>
+        <v>1091822</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>193</v>
@@ -3331,7 +3349,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -3519,7 +3537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D01004D-CB8F-4A2C-9CDE-08A533F0B20A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF07A4-FC18-4E0D-B0B0-E1E939A51EF2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3640,7 +3658,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>25924</v>
+        <v>23770</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>216</v>
@@ -3655,7 +3673,7 @@
         <v>177</v>
       </c>
       <c r="I4" s="7">
-        <v>111045</v>
+        <v>96846</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>219</v>
@@ -3670,7 +3688,7 @@
         <v>212</v>
       </c>
       <c r="N4" s="7">
-        <v>136970</v>
+        <v>120616</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>222</v>
@@ -3691,7 +3709,7 @@
         <v>653</v>
       </c>
       <c r="D5" s="7">
-        <v>513363</v>
+        <v>488966</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>225</v>
@@ -3706,7 +3724,7 @@
         <v>1246</v>
       </c>
       <c r="I5" s="7">
-        <v>720523</v>
+        <v>654886</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>228</v>
@@ -3721,7 +3739,7 @@
         <v>1899</v>
       </c>
       <c r="N5" s="7">
-        <v>1233886</v>
+        <v>1143852</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>231</v>
@@ -3742,7 +3760,7 @@
         <v>688</v>
       </c>
       <c r="D6" s="7">
-        <v>539287</v>
+        <v>512736</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -3757,7 +3775,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831568</v>
+        <v>751732</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -3772,7 +3790,7 @@
         <v>2111</v>
       </c>
       <c r="N6" s="7">
-        <v>1370856</v>
+        <v>1264468</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -3795,22 +3813,22 @@
         <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>38501</v>
+        <v>35452</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
       </c>
       <c r="I7" s="7">
-        <v>76731</v>
+        <v>68226</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>235</v>
@@ -3819,22 +3837,22 @@
         <v>236</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="M7" s="7">
         <v>166</v>
       </c>
       <c r="N7" s="7">
-        <v>115231</v>
+        <v>103677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,46 +3864,46 @@
         <v>1948</v>
       </c>
       <c r="D8" s="7">
-        <v>2123521</v>
+        <v>2254875</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="H8" s="7">
         <v>2798</v>
       </c>
       <c r="I8" s="7">
-        <v>2172065</v>
+        <v>2168919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>4746</v>
       </c>
       <c r="N8" s="7">
-        <v>4295586</v>
+        <v>4423795</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,7 +3915,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -3912,7 +3930,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -3927,7 +3945,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -3950,46 +3968,46 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1451</v>
+        <v>1387</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>21810</v>
+        <v>19415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>23261</v>
+        <v>20803</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +4019,13 @@
         <v>679</v>
       </c>
       <c r="D11" s="7">
-        <v>671588</v>
+        <v>645236</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>192</v>
@@ -4016,31 +4034,31 @@
         <v>970</v>
       </c>
       <c r="I11" s="7">
-        <v>691133</v>
+        <v>640172</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>1649</v>
       </c>
       <c r="N11" s="7">
-        <v>1362721</v>
+        <v>1285408</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,7 +4070,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -4067,7 +4085,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>712943</v>
+        <v>659587</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -4082,7 +4100,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1385982</v>
+        <v>1306211</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -4105,46 +4123,46 @@
         <v>81</v>
       </c>
       <c r="D13" s="7">
-        <v>65876</v>
+        <v>60609</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>332</v>
       </c>
       <c r="I13" s="7">
-        <v>209586</v>
+        <v>184487</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
       </c>
       <c r="N13" s="7">
-        <v>275462</v>
+        <v>245096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,46 +4174,46 @@
         <v>3280</v>
       </c>
       <c r="D14" s="7">
-        <v>3308472</v>
+        <v>3389078</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>5014</v>
       </c>
       <c r="I14" s="7">
-        <v>3583721</v>
+        <v>3463977</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>8294</v>
       </c>
       <c r="N14" s="7">
-        <v>6892194</v>
+        <v>6853054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,7 +4225,7 @@
         <v>3361</v>
       </c>
       <c r="D15" s="7">
-        <v>3374348</v>
+        <v>3449687</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -4222,7 +4240,7 @@
         <v>5346</v>
       </c>
       <c r="I15" s="7">
-        <v>3793307</v>
+        <v>3648464</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4237,7 +4255,7 @@
         <v>8707</v>
       </c>
       <c r="N15" s="7">
-        <v>7167656</v>
+        <v>7098150</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
